--- a/Selenium/Bugs/data/genre/국내 인디.xlsx
+++ b/Selenium/Bugs/data/genre/국내 인디.xlsx
@@ -154,7 +154,7 @@
     <t>Let It Go</t>
   </si>
   <si>
-    <t>Luv'ae (Love You Babe)</t>
+    <t xml:space="preserve">Luv'ae (Love You Babe) </t>
   </si>
   <si>
     <t>You’re so lonely now, so you need me back by your side again</t>
@@ -205,7 +205,7 @@
     <t>수성의 하루</t>
   </si>
   <si>
-    <t>[19금]</t>
+    <t>who (Remastered)</t>
   </si>
   <si>
     <t>LITTLE BY LITTLE</t>
